--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787362.065536778</v>
+        <v>787362.0655367777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>820859.272184457</v>
+        <v>778899.1436714476</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17665746.29560159</v>
+        <v>17665746.29560158</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>130.9180362598743</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T3" t="n">
-        <v>11.01727716149734</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2.366609375368838</v>
+        <v>185.1703834464132</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.70751068041569</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,76 +1367,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="E11" t="n">
-        <v>38.19053515138899</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Y11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="H11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>155.5032166200849</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1537,22 +1537,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.647654120134896</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.2133755837553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="W14" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="X14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.973333495908895</v>
+        <v>35.98793427391205</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.46550985000072</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F17" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="G17" t="n">
         <v>243.2386572690346</v>
-      </c>
-      <c r="G17" t="n">
-        <v>276.1565137023555</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9364262421938</v>
@@ -1983,13 +1983,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>1.654403031528337</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="19">
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>243.2386572690346</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="G20" t="n">
+      <c r="Y20" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2214,10 +2214,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>181.5785418901068</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4427027973384</v>
       </c>
     </row>
     <row r="22">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="W23" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="Y23" t="n">
-        <v>243.2386572690346</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>155.503216620085</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>56.44629161031636</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.884372849250084</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.6773952840984929</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="E26" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="E26" t="n">
-        <v>243.2386572690346</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>140.2378518701929</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>13.46550985000068</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X29" t="n">
-        <v>243.2386572690345</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
     </row>
     <row r="30">
@@ -2874,19 +2874,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>42.2882496502686</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0.5152575997168515</v>
       </c>
     </row>
     <row r="31">
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.2133755837553</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.5888690915971</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="34">
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,64 +3275,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>222.4795457699687</v>
-      </c>
-      <c r="U35" t="n">
-        <v>155.8903435161421</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>42.28824965026882</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.34588845800675</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>7.884372849250084</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F38" t="n">
         <v>276.1565137023555</v>
@@ -3518,10 +3518,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="H38" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>38.19053515138899</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>64.17101755962045</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="40">
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,73 +3737,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="C41" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>243.2386572690346</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="G41" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>276.1565137023555</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9364262421938</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>68.79042882357072</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,70 +3974,70 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>243.2386572690346</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G44" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9364262421938</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>130.7726832051871</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,70 +4132,70 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4410,46 +4410,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>678.3417187247995</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>678.3417187247995</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4516,22 +4516,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>687.0797669936162</v>
+        <v>777.0163641506228</v>
       </c>
       <c r="U6" t="n">
-        <v>458.8561487300053</v>
+        <v>777.0163641506228</v>
       </c>
       <c r="V6" t="n">
-        <v>223.7040404982626</v>
+        <v>777.0163641506228</v>
       </c>
       <c r="W6" t="n">
-        <v>223.7040404982626</v>
+        <v>533.5675875065228</v>
       </c>
       <c r="X6" t="n">
-        <v>223.7040404982626</v>
+        <v>533.5675875065228</v>
       </c>
       <c r="Y6" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="7">
@@ -4714,10 +4714,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4844,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4890,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>380.6929175551172</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1104.626054809422</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="C11" t="n">
-        <v>1104.626054809422</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D11" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E11" t="n">
-        <v>1066.049756676706</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1037832399832</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G11" t="n">
-        <v>508.1578098032605</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
@@ -5081,10 +5081,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>45.18387750277333</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>291.3393440954743</v>
+        <v>395.7621090217972</v>
       </c>
       <c r="M12" t="n">
-        <v>564.7342926608062</v>
+        <v>669.1570575871291</v>
       </c>
       <c r="N12" t="n">
-        <v>838.1292412261381</v>
+        <v>673.2291631121088</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.626054809422</v>
+        <v>921.9825771960711</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5145,22 +5145,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>947.552098627518</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>947.552098627518</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>719.3334862616657</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V12" t="n">
-        <v>484.1813780299229</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W12" t="n">
-        <v>229.9440213017213</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X12" t="n">
-        <v>22.09252109618844</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y12" t="n">
         <v>22.09252109618844</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031358</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>43.890404698054</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.09252109618844</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C14" t="n">
-        <v>22.09252109618844</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D14" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E14" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F14" t="n">
         <v>22.09252109618844</v>
@@ -5276,13 +5276,13 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M14" t="n">
         <v>586.3582880173956</v>
@@ -5291,7 +5291,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5300,16 +5300,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T14" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U14" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V14" t="n">
         <v>858.9304414063566</v>
@@ -5318,10 +5318,10 @@
         <v>579.9844679696339</v>
       </c>
       <c r="X14" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.09252109618844</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>585.728064192082</v>
+        <v>232.8969991388428</v>
       </c>
       <c r="C15" t="n">
-        <v>411.275034910955</v>
+        <v>58.44396985771576</v>
       </c>
       <c r="D15" t="n">
-        <v>262.3406252497037</v>
+        <v>58.44396985771576</v>
       </c>
       <c r="E15" t="n">
-        <v>256.306955051816</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F15" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G15" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I15" t="n">
         <v>22.09252109618844</v>
@@ -5358,16 +5358,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4923828364511</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6478494291521</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M15" t="n">
-        <v>562.3310704112777</v>
+        <v>580.0744699105992</v>
       </c>
       <c r="N15" t="n">
-        <v>562.3310704112777</v>
+        <v>580.0744699105992</v>
       </c>
       <c r="O15" t="n">
         <v>828.8278839945615</v>
@@ -5379,28 +5379,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>1008.180757940352</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U15" t="n">
-        <v>1008.180757940352</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="V15" t="n">
-        <v>1008.180757940352</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="W15" t="n">
-        <v>753.9434012121501</v>
+        <v>648.5087981093295</v>
       </c>
       <c r="X15" t="n">
-        <v>753.9434012121501</v>
+        <v>440.6572979037967</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.9434012121501</v>
+        <v>232.8969991388428</v>
       </c>
     </row>
     <row r="16">
@@ -5419,16 +5419,16 @@
         <v>198.9927170031359</v>
       </c>
       <c r="E16" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F16" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H16" t="n">
-        <v>35.69404619719927</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I16" t="n">
         <v>22.09252109618844</v>
@@ -5492,16 +5492,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="C17" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="D17" t="n">
         <v>825.6800813726992</v>
-      </c>
-      <c r="D17" t="n">
-        <v>546.7341079359765</v>
       </c>
       <c r="E17" t="n">
         <v>546.7341079359765</v>
       </c>
       <c r="F17" t="n">
-        <v>301.0384945329112</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="G17" t="n">
         <v>22.09252109618844</v>
@@ -5513,13 +5513,13 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K17" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M17" t="n">
         <v>586.3582880173956</v>
@@ -5528,7 +5528,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5592,25 +5592,25 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J18" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K18" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L18" t="n">
-        <v>395.7621090217972</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M18" t="n">
-        <v>669.1570575871291</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N18" t="n">
-        <v>942.552006152461</v>
+        <v>603.8346045987796</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.626054809422</v>
+        <v>852.5880186827419</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.626054809422</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809422</v>
@@ -5622,19 +5622,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T18" t="n">
-        <v>902.7461548375312</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U18" t="n">
-        <v>674.5275424716789</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V18" t="n">
-        <v>439.3754342399362</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W18" t="n">
-        <v>437.7043200666752</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X18" t="n">
-        <v>229.8528198611424</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y18" t="n">
         <v>22.09252109618844</v>
@@ -5704,10 +5704,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W19" t="n">
         <v>22.09252109618844</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>858.9304414063566</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C20" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D20" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E20" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F20" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G20" t="n">
         <v>22.09252109618844</v>
@@ -5750,22 +5750,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618853</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K20" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M20" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5789,13 +5789,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W20" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="X20" t="n">
-        <v>1104.626054809422</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y20" t="n">
-        <v>1104.626054809422</v>
+        <v>267.7881344992537</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>377.413187022375</v>
       </c>
       <c r="M21" t="n">
-        <v>650.8081355877068</v>
+        <v>377.413187022375</v>
       </c>
       <c r="N21" t="n">
-        <v>924.2030841530387</v>
+        <v>576.5717127952154</v>
       </c>
       <c r="O21" t="n">
-        <v>1104.626054809422</v>
+        <v>843.0685263784992</v>
       </c>
       <c r="P21" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5862,16 +5862,16 @@
         <v>902.7461548375312</v>
       </c>
       <c r="U21" t="n">
-        <v>719.3334862616657</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V21" t="n">
-        <v>484.1813780299229</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="W21" t="n">
-        <v>229.9440213017213</v>
+        <v>420.2901857434773</v>
       </c>
       <c r="X21" t="n">
-        <v>22.09252109618844</v>
+        <v>212.4386855379444</v>
       </c>
       <c r="Y21" t="n">
         <v>22.09252109618844</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C23" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D23" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E23" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F23" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G23" t="n">
         <v>22.09252109618844</v>
@@ -5987,13 +5987,13 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K23" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L23" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M23" t="n">
         <v>586.3582880173956</v>
@@ -6023,13 +6023,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V23" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W23" t="n">
-        <v>825.6800813726992</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X23" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y23" t="n">
         <v>301.0384945329112</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>225.6435352413402</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C24" t="n">
-        <v>225.6435352413402</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D24" t="n">
-        <v>225.6435352413402</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E24" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F24" t="n">
         <v>22.09252109618844</v>
@@ -6069,22 +6069,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K24" t="n">
-        <v>126.439265981445</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L24" t="n">
-        <v>126.439265981445</v>
+        <v>389.4554887048002</v>
       </c>
       <c r="M24" t="n">
-        <v>399.8342145467769</v>
+        <v>389.4554887048002</v>
       </c>
       <c r="N24" t="n">
-        <v>673.2291631121088</v>
+        <v>603.8346045987796</v>
       </c>
       <c r="O24" t="n">
-        <v>921.9825771960711</v>
+        <v>852.5880186827419</v>
       </c>
       <c r="P24" t="n">
-        <v>1104.626054809422</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q24" t="n">
         <v>1104.626054809422</v>
@@ -6105,13 +6105,13 @@
         <v>641.2553342118269</v>
       </c>
       <c r="W24" t="n">
-        <v>641.2553342118269</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X24" t="n">
-        <v>433.4038340062941</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y24" t="n">
-        <v>225.6435352413402</v>
+        <v>179.1664772780925</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="C25" t="n">
-        <v>935.689871881515</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="D25" t="n">
         <v>927.7258589024746</v>
@@ -6169,28 +6169,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R25" t="n">
-        <v>1104.626054809422</v>
+        <v>928.4100965631801</v>
       </c>
       <c r="S25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="T25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="U25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="V25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="W25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="X25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="Y25" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C26" t="n">
-        <v>546.7341079359765</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="D26" t="n">
-        <v>267.7881344992537</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="E26" t="n">
-        <v>22.09252109618844</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F26" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G26" t="n">
         <v>22.09252109618844</v>
@@ -6224,16 +6224,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J26" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K26" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L26" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M26" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N26" t="n">
         <v>817.0829279823542</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>345.4799600385667</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C27" t="n">
-        <v>171.0269307574397</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D27" t="n">
         <v>22.09252109618844</v>
@@ -6306,22 +6306,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K27" t="n">
-        <v>145.2295741970582</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L27" t="n">
-        <v>375.1926800654073</v>
+        <v>389.4554887048002</v>
       </c>
       <c r="M27" t="n">
-        <v>648.5876286307392</v>
+        <v>580.0744699105992</v>
       </c>
       <c r="N27" t="n">
-        <v>921.9825771960711</v>
+        <v>580.0744699105992</v>
       </c>
       <c r="O27" t="n">
-        <v>921.9825771960711</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P27" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q27" t="n">
         <v>1104.626054809422</v>
@@ -6333,22 +6333,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T27" t="n">
-        <v>902.7461548375312</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U27" t="n">
-        <v>761.0917590090535</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V27" t="n">
-        <v>761.0917590090535</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W27" t="n">
-        <v>761.0917590090535</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X27" t="n">
-        <v>553.2402588035206</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y27" t="n">
-        <v>345.4799600385667</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="C28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="D28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="E28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="F28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="G28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="H28" t="n">
         <v>927.7258589024746</v>
@@ -6409,25 +6409,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S28" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="T28" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="U28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="V28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="W28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="X28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="Y28" t="n">
-        <v>1091.024529708411</v>
+        <v>927.7258589024746</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C29" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D29" t="n">
-        <v>579.9844679696338</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E29" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F29" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G29" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H29" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I29" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J29" t="n">
-        <v>22.09252109618853</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K29" t="n">
-        <v>142.8373253438685</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L29" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M29" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N29" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O29" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P29" t="n">
         <v>1099.465256491931</v>
@@ -6500,13 +6500,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W29" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="X29" t="n">
-        <v>858.9304414063565</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y29" t="n">
-        <v>858.9304414063565</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.5455503773155</v>
+        <v>763.8862428185963</v>
       </c>
       <c r="C30" t="n">
-        <v>22.09252109618843</v>
+        <v>589.4332135374693</v>
       </c>
       <c r="D30" t="n">
-        <v>22.09252109618843</v>
+        <v>440.498803876218</v>
       </c>
       <c r="E30" t="n">
-        <v>22.09252109618843</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="F30" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G30" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H30" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I30" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J30" t="n">
         <v>28.39914141318535</v>
       </c>
       <c r="K30" t="n">
-        <v>165.799003153448</v>
+        <v>153.7567014710228</v>
       </c>
       <c r="L30" t="n">
-        <v>165.799003153448</v>
+        <v>383.7198073393719</v>
       </c>
       <c r="M30" t="n">
-        <v>382.0908150474552</v>
+        <v>383.7198073393719</v>
       </c>
       <c r="N30" t="n">
-        <v>655.4857636127871</v>
+        <v>603.8346045987796</v>
       </c>
       <c r="O30" t="n">
-        <v>921.9825771960709</v>
+        <v>852.5880186827419</v>
       </c>
       <c r="P30" t="n">
-        <v>1104.626054809422</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q30" t="n">
         <v>1104.626054809422</v>
@@ -6567,25 +6567,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S30" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T30" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U30" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V30" t="n">
-        <v>869.473946577679</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="W30" t="n">
-        <v>615.2365898494775</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="X30" t="n">
-        <v>572.5211861623375</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="Y30" t="n">
-        <v>364.7608873973835</v>
+        <v>932.1015798386643</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="C31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="D31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="E31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="F31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="G31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="H31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="I31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="J31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="K31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="L31" t="n">
-        <v>58.70189726492715</v>
+        <v>964.3352350712132</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6904745160687</v>
+        <v>1013.323812322355</v>
       </c>
       <c r="N31" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O31" t="n">
-        <v>194.1252445754623</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P31" t="n">
-        <v>198.9927170031359</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q31" t="n">
-        <v>198.9927170031359</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R31" t="n">
-        <v>198.9927170031359</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S31" t="n">
-        <v>198.9927170031359</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T31" t="n">
-        <v>22.09252109618843</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U31" t="n">
-        <v>22.09252109618843</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="W31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="X31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024746</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>858.9304414063566</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C32" t="n">
-        <v>579.9844679696339</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D32" t="n">
-        <v>301.0384945329112</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E32" t="n">
-        <v>301.0384945329112</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F32" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H32" t="n">
         <v>22.09252109618844</v>
@@ -6698,7 +6698,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J32" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K32" t="n">
         <v>142.8373253438683</v>
@@ -6722,28 +6722,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R32" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S32" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T32" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U32" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V32" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W32" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X32" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y32" t="n">
-        <v>962.1762753293418</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>701.2586095576112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C33" t="n">
-        <v>554.1991458287252</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D33" t="n">
-        <v>554.1991458287252</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E33" t="n">
-        <v>394.9616908232698</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F33" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G33" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H33" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I33" t="n">
         <v>22.09252109618844</v>
@@ -6780,22 +6780,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K33" t="n">
-        <v>22.09252109618844</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L33" t="n">
-        <v>268.2479876888895</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M33" t="n">
-        <v>303.1767642298835</v>
+        <v>377.413187022375</v>
       </c>
       <c r="N33" t="n">
-        <v>576.5717127952154</v>
+        <v>603.8346045987796</v>
       </c>
       <c r="O33" t="n">
-        <v>843.0685263784992</v>
+        <v>852.5880186827419</v>
       </c>
       <c r="P33" t="n">
-        <v>1025.71200399185</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q33" t="n">
         <v>1104.626054809422</v>
@@ -6810,19 +6810,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U33" t="n">
-        <v>1104.626054809422</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V33" t="n">
-        <v>869.4739465776793</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W33" t="n">
-        <v>869.4739465776793</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X33" t="n">
-        <v>869.4739465776793</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y33" t="n">
-        <v>869.4739465776793</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="D34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="E34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="F34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="G34" t="n">
-        <v>927.7258589024746</v>
+        <v>935.0019878747162</v>
       </c>
       <c r="H34" t="n">
         <v>927.7258589024746</v>
@@ -6895,13 +6895,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y34" t="n">
-        <v>927.7258589024746</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>301.0384945329112</v>
       </c>
       <c r="F35" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G35" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H35" t="n">
         <v>22.09252109618844</v>
@@ -6959,25 +6959,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R35" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S35" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T35" t="n">
-        <v>737.4494614202825</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U35" t="n">
-        <v>579.9844679696339</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V35" t="n">
-        <v>579.9844679696339</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W35" t="n">
-        <v>579.9844679696339</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X35" t="n">
-        <v>579.9844679696339</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y35" t="n">
         <v>579.9844679696339</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.6270790693035</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C36" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D36" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E36" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F36" t="n">
         <v>22.09252109618844</v>
@@ -7017,19 +7017,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K36" t="n">
-        <v>147.4500811540258</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L36" t="n">
-        <v>393.6055477467269</v>
+        <v>389.4554887048002</v>
       </c>
       <c r="M36" t="n">
-        <v>667.0004963120588</v>
+        <v>658.9885207281711</v>
       </c>
       <c r="N36" t="n">
-        <v>667.0004963120588</v>
+        <v>658.9885207281711</v>
       </c>
       <c r="O36" t="n">
-        <v>915.753910396021</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P36" t="n">
         <v>1104.626054809422</v>
@@ -7038,28 +7038,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R36" t="n">
-        <v>1104.626054809422</v>
+        <v>1061.910651122282</v>
       </c>
       <c r="S36" t="n">
-        <v>1104.626054809422</v>
+        <v>1061.910651122282</v>
       </c>
       <c r="T36" t="n">
-        <v>902.7461548375312</v>
+        <v>1061.910651122282</v>
       </c>
       <c r="U36" t="n">
-        <v>674.5275424716789</v>
+        <v>1061.910651122282</v>
       </c>
       <c r="V36" t="n">
-        <v>439.3754342399362</v>
+        <v>826.758542890539</v>
       </c>
       <c r="W36" t="n">
-        <v>185.1380775117345</v>
+        <v>572.5211861623375</v>
       </c>
       <c r="X36" t="n">
-        <v>185.1380775117345</v>
+        <v>572.5211861623375</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.6270790693035</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1096.662041830381</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="C37" t="n">
         <v>927.7258589024746</v>
@@ -7126,19 +7126,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U37" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="V37" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="W37" t="n">
-        <v>1096.662041830381</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.662041830381</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="Y37" t="n">
-        <v>1096.662041830381</v>
+        <v>927.7258589024746</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1066.049756676706</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="C38" t="n">
-        <v>1066.049756676706</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="D38" t="n">
-        <v>1066.049756676706</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="E38" t="n">
-        <v>1066.049756676706</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F38" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G38" t="n">
-        <v>508.1578098032605</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H38" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I38" t="n">
         <v>22.09252109618844</v>
@@ -7178,7 +7178,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L38" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M38" t="n">
         <v>586.3582880173956</v>
@@ -7208,16 +7208,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V38" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W38" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X38" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y38" t="n">
-        <v>1066.049756676706</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K39" t="n">
-        <v>159.4923828364511</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L39" t="n">
-        <v>405.6478494291521</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M39" t="n">
-        <v>679.0427979944841</v>
+        <v>377.413187022375</v>
       </c>
       <c r="N39" t="n">
-        <v>843.0685263784992</v>
+        <v>589.5939622148419</v>
       </c>
       <c r="O39" t="n">
-        <v>843.0685263784992</v>
+        <v>838.3473762988042</v>
       </c>
       <c r="P39" t="n">
-        <v>1025.71200399185</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q39" t="n">
         <v>1104.626054809422</v>
@@ -7278,25 +7278,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S39" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T39" t="n">
-        <v>730.7421420887098</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U39" t="n">
-        <v>502.5235297228575</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V39" t="n">
-        <v>502.5235297228575</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W39" t="n">
-        <v>502.5235297228575</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X39" t="n">
-        <v>294.6720295173246</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y39" t="n">
-        <v>86.91173075237072</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="40">
@@ -7357,10 +7357,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U40" t="n">
         <v>22.09252109618844</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C41" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D41" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E41" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F41" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G41" t="n">
         <v>22.09252109618844</v>
@@ -7409,7 +7409,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J41" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K41" t="n">
         <v>142.8373253438684</v>
@@ -7424,7 +7424,7 @@
         <v>817.0829279823544</v>
       </c>
       <c r="O41" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P41" t="n">
         <v>1099.465256491931</v>
@@ -7451,10 +7451,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X41" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y41" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I42" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J42" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K42" t="n">
-        <v>45.1838775027733</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L42" t="n">
-        <v>291.3393440954743</v>
+        <v>258.3622472815345</v>
       </c>
       <c r="M42" t="n">
-        <v>564.7342926608062</v>
+        <v>531.7571958468664</v>
       </c>
       <c r="N42" t="n">
-        <v>838.1292412261381</v>
+        <v>603.8346045987796</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.626054809422</v>
+        <v>852.5880186827419</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.626054809422</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q42" t="n">
         <v>1104.626054809422</v>
@@ -7521,19 +7521,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U42" t="n">
-        <v>876.4074424435696</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V42" t="n">
-        <v>641.2553342118269</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W42" t="n">
-        <v>387.0179774836253</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X42" t="n">
-        <v>317.5326958436549</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="43">
@@ -7597,16 +7597,16 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T43" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U43" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V43" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W43" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X43" t="n">
         <v>22.09252109618844</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>579.9844679696339</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="C44" t="n">
-        <v>579.9844679696339</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D44" t="n">
-        <v>579.9844679696339</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="E44" t="n">
-        <v>579.9844679696339</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F44" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G44" t="n">
         <v>22.09252109618844</v>
@@ -7646,13 +7646,13 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J44" t="n">
-        <v>22.09252109618845</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K44" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L44" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M44" t="n">
         <v>586.3582880173956</v>
@@ -7685,13 +7685,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W44" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="X44" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y44" t="n">
-        <v>825.6800813726992</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C45" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D45" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F45" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G45" t="n">
         <v>22.09252109618844</v>
@@ -7728,22 +7728,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K45" t="n">
-        <v>22.09252109618844</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L45" t="n">
-        <v>221.9447855821451</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M45" t="n">
-        <v>495.339734147477</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N45" t="n">
-        <v>768.7346827128089</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O45" t="n">
-        <v>1035.231496296093</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P45" t="n">
-        <v>1035.231496296093</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q45" t="n">
         <v>1104.626054809422</v>
@@ -7755,22 +7755,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T45" t="n">
-        <v>902.7461548375312</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U45" t="n">
-        <v>674.5275424716789</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V45" t="n">
-        <v>439.3754342399362</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W45" t="n">
-        <v>307.2818148407573</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X45" t="n">
-        <v>307.2818148407573</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y45" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="46">
@@ -7843,13 +7843,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>149.002100311894</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>418.2905476243738</v>
       </c>
       <c r="N12" t="n">
-        <v>407.4982257856888</v>
+        <v>135.4549499873532</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>281.3133266100198</v>
+        <v>346.8424004757802</v>
       </c>
       <c r="N15" t="n">
         <v>111.7499598249992</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>418.2905476243738</v>
       </c>
       <c r="N18" t="n">
-        <v>407.4982257856888</v>
+        <v>194.1615790980386</v>
       </c>
       <c r="O18" t="n">
-        <v>288.3847789471104</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>418.2905476243738</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>407.4982257856888</v>
+        <v>332.5119401367074</v>
       </c>
       <c r="O21" t="n">
-        <v>306.9190435929915</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.2421913837091</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>418.2905476243738</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>407.4982257856888</v>
+        <v>347.8862735924034</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>250.0583595990504</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>418.2905476243738</v>
+        <v>334.6784593824213</v>
       </c>
       <c r="N27" t="n">
-        <v>407.4982257856888</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>360.6106115927327</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>407.4982257856888</v>
+        <v>353.6798911332401</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>177.4156263876689</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>407.4982257856888</v>
+        <v>360.0502146857622</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>418.2905476243738</v>
+        <v>414.3896218244132</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>418.2905476243738</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>297.0242660065809</v>
+        <v>345.6657274292595</v>
       </c>
       <c r="O39" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>149.0021003118939</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>418.2905476243738</v>
       </c>
       <c r="N42" t="n">
-        <v>407.4982257856888</v>
+        <v>204.1471754691043</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>324.0694340845255</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>418.2905476243738</v>
+        <v>408.6309371608816</v>
       </c>
       <c r="N45" t="n">
-        <v>407.4982257856888</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>120.4276166479622</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T3" t="n">
-        <v>189.1474515333243</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,31 +22781,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22869,19 +22869,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>197.7981193194528</v>
+        <v>14.99434524840837</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22954,13 +22954,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.8256729694517</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,25 +23148,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23194,7 +23194,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516484</v>
       </c>
       <c r="E11" t="n">
-        <v>343.7398349208728</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23355,7 +23355,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23385,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>14.78075600124828</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23425,22 +23425,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>138.217680340412</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>82.24660231436349</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G14" t="n">
         <v>415.1619485273195</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>103.5984649426425</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
         <v>222.4795457699687</v>
@@ -23552,16 +23552,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110027</v>
       </c>
       <c r="W14" t="n">
         <v>73.08445501505753</v>
       </c>
       <c r="X14" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,19 +23571,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>151.6717469594921</v>
+        <v>121.6571461814889</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.2681884137393</v>
@@ -23592,7 +23592,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9364262421938</v>
@@ -23637,10 +23637,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>139.23059496405</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>140.0857793320302</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J16" t="n">
         <v>88.89425643449839</v>
@@ -23732,19 +23732,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>78.52652791832747</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F17" t="n">
-        <v>163.6373884726768</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>171.9232912582848</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
@@ -23862,7 +23862,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,13 +23871,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>250.0405801293913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="19">
@@ -23944,13 +23944,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U19" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.4951843944459</v>
+        <v>139.495184394446</v>
       </c>
       <c r="C20" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="21">
@@ -24102,10 +24102,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>44.35788435208698</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>17.23999297996596</v>
       </c>
     </row>
     <row r="22">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H23" t="n">
         <v>338.0329468943008</v>
@@ -24263,16 +24263,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110027</v>
       </c>
       <c r="W23" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>93.57458697611355</v>
       </c>
       <c r="Y23" t="n">
-        <v>142.999281387019</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>11.02996702978234</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,10 +24291,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>101.1987888450846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.2681884137393</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>140.7311001689623</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,10 +24409,10 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R25" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>222.9160118599466</v>
+        <v>222.2386165758481</v>
       </c>
       <c r="T25" t="n">
         <v>227.6757534850358</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>78.52652791832747</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E26" t="n">
-        <v>138.6917128032272</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G26" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H26" t="n">
         <v>338.0329468943008</v>
@@ -24522,10 +24522,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24573,16 +24573,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U27" t="n">
-        <v>85.69857437200088</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I28" t="n">
         <v>153.551289182031</v>
@@ -24649,13 +24649,13 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S28" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206875</v>
       </c>
       <c r="T28" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U28" t="n">
-        <v>272.8500747923211</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>105.7738563699064</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H29" t="n">
         <v>338.0329468943008</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X29" t="n">
-        <v>126.4924434094345</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>142.999281387019</v>
       </c>
     </row>
     <row r="30">
@@ -24762,19 +24762,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>86.80307722268739</v>
@@ -24807,7 +24807,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S30" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>199.8611009721718</v>
@@ -24816,16 +24816,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>163.4847355532089</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.1674381775875</v>
       </c>
     </row>
     <row r="31">
@@ -24889,13 +24889,13 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T31" t="n">
-        <v>52.54455953715785</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U31" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595013</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>280.5204660797252</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C32" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>163.6373884726768</v>
       </c>
       <c r="G32" t="n">
         <v>415.1619485273195</v>
       </c>
       <c r="H32" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I32" t="n">
         <v>205.0481221176458</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S32" t="n">
         <v>205.8118405263978</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>27.11962989671866</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H33" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,19 +25050,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="34">
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6656840978772</v>
+        <v>154.462316415358</v>
       </c>
       <c r="I34" t="n">
         <v>153.551289182031</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25163,13 +25163,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G35" t="n">
         <v>415.1619485273195</v>
       </c>
       <c r="H35" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I35" t="n">
         <v>205.0481221176458</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S35" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U35" t="n">
-        <v>95.44404627266911</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>142.999281387019</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.2681884137393</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>95.48084390037957</v>
+        <v>53.19259425011075</v>
       </c>
       <c r="S36" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>189.3368073192976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,13 +25366,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>278.6386254873409</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,7 +25397,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F38" t="n">
         <v>130.719532039356</v>
@@ -25406,10 +25406,10 @@
         <v>139.005434824964</v>
       </c>
       <c r="H38" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V38" t="n">
-        <v>289.5617233187459</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>142.999281387019</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.3621660902469</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25518,25 +25518,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="40">
@@ -25597,13 +25597,13 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S40" t="n">
-        <v>47.78481791206872</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T40" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.4951843944459</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H41" t="n">
         <v>338.0329468943008</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>126.4924434094344</v>
       </c>
       <c r="Y41" t="n">
         <v>110.0814249536981</v>
@@ -25725,7 +25725,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>136.9825563799068</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T43" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U43" t="n">
         <v>286.3155846423218</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>50.57846144115925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>139.4951843944459</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>130.719532039356</v>
+        <v>163.6373884726768</v>
       </c>
       <c r="G44" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H44" t="n">
         <v>338.0329468943008</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25953,10 +25953,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H45" t="n">
         <v>111.5079271034444</v>
@@ -25995,22 +25995,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>120.9222999557325</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.700786234059393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478390.9493852579</v>
+        <v>478390.949385258</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478390.9493852579</v>
+        <v>478390.949385258</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>478390.9493852579</v>
+        <v>478390.9493852581</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852579</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852581</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852579</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478390.9493852579</v>
+        <v>478390.9493852581</v>
       </c>
     </row>
     <row r="14">
@@ -26335,7 +26335,7 @@
         <v>141745.4664845208</v>
       </c>
       <c r="J2" t="n">
-        <v>141745.4664845207</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="K2" t="n">
         <v>141745.4664845208</v>
@@ -26350,10 +26350,10 @@
         <v>141745.4664845208</v>
       </c>
       <c r="O2" t="n">
+        <v>141745.4664845207</v>
+      </c>
+      <c r="P2" t="n">
         <v>141745.4664845208</v>
-      </c>
-      <c r="P2" t="n">
-        <v>141745.4664845207</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923565</v>
+        <v>38628.88112923566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26445,7 +26445,7 @@
         <v>206.5374179011836</v>
       </c>
       <c r="L4" t="n">
-        <v>206.5374179011836</v>
+        <v>206.5374179011837</v>
       </c>
       <c r="M4" t="n">
         <v>206.5374179011836</v>
@@ -26494,7 +26494,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="K5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="L5" t="n">
         <v>17553.77951678015</v>
@@ -26519,13 +26519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698.305232052517</v>
+        <v>3698.305232052531</v>
       </c>
       <c r="C6" t="n">
-        <v>84467.73676360029</v>
+        <v>84467.7367636003</v>
       </c>
       <c r="D6" t="n">
-        <v>84467.73676360029</v>
+        <v>84467.7367636003</v>
       </c>
       <c r="E6" t="n">
         <v>85356.26842060377</v>
@@ -26534,22 +26534,22 @@
         <v>123985.1495498395</v>
       </c>
       <c r="G6" t="n">
-        <v>123985.1495498395</v>
+        <v>123985.1495498394</v>
       </c>
       <c r="H6" t="n">
-        <v>123985.1495498395</v>
+        <v>123985.1495498394</v>
       </c>
       <c r="I6" t="n">
         <v>123985.1495498395</v>
       </c>
       <c r="J6" t="n">
-        <v>60925.20695073317</v>
+        <v>60925.20695073321</v>
       </c>
       <c r="K6" t="n">
         <v>123985.1495498394</v>
       </c>
       <c r="L6" t="n">
-        <v>123985.1495498395</v>
+        <v>123985.1495498394</v>
       </c>
       <c r="M6" t="n">
         <v>115227.5665546258</v>
@@ -26558,7 +26558,7 @@
         <v>123985.1495498394</v>
       </c>
       <c r="O6" t="n">
-        <v>123985.1495498395</v>
+        <v>123985.1495498394</v>
       </c>
       <c r="P6" t="n">
         <v>123985.1495498394</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>35.02126071912534</v>
@@ -26814,7 +26814,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="L4" t="n">
         <v>276.1565137023555</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31756,43 +31756,43 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760118</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870377</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779988</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31853,25 +31853,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S12" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948817</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,19 +32078,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>19.59175225833409</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>14.38448725650263</v>
@@ -32312,13 +32312,13 @@
         <v>2.593555628727679</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -32327,13 +32327,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>4.676990252263571</v>
@@ -32549,7 +32549,7 @@
         <v>2.593555628727679</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>2.593555628727679</v>
       </c>
       <c r="J24" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>4.676990252263571</v>
@@ -33038,10 +33038,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q27" t="n">
         <v>9.615648792164377</v>
@@ -33263,10 +33263,10 @@
         <v>7.116914878779991</v>
       </c>
       <c r="K30" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33275,7 +33275,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33497,13 +33497,13 @@
         <v>2.593555628727679</v>
       </c>
       <c r="J33" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -33512,13 +33512,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>4.676990252263571</v>
@@ -33734,13 +33734,13 @@
         <v>2.593555628727679</v>
       </c>
       <c r="J36" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L36" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33752,7 +33752,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>6.291582626313243</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q36" t="n">
         <v>9.615648792164377</v>
@@ -33974,10 +33974,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33986,13 +33986,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>4.676990252263571</v>
@@ -34211,10 +34211,10 @@
         <v>7.116914878779991</v>
       </c>
       <c r="K42" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34223,13 +34223,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>4.676990252263571</v>
@@ -34387,7 +34387,7 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796967</v>
       </c>
       <c r="R44" t="n">
         <v>8.84383625587038</v>
@@ -34445,13 +34445,13 @@
         <v>2.593555628727679</v>
       </c>
       <c r="J45" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -34466,7 +34466,7 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R45" t="n">
         <v>4.676990252263571</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424821</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K12" t="n">
-        <v>23.32460243089383</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>4.113237904019947</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,13 +35577,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O13" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315785</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>158.2658797799248</v>
+        <v>204.7083665537618</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>198.8728484821096</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023555</v>
+        <v>62.8198670147053</v>
       </c>
       <c r="O18" t="n">
-        <v>163.7111602595565</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023555</v>
+        <v>201.1702280533741</v>
       </c>
       <c r="O21" t="n">
-        <v>182.2454249054376</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>105.4007524093501</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>276.1565137023555</v>
+        <v>216.5445615090701</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>124.3808617180503</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>276.1565137023555</v>
+        <v>192.544425460403</v>
       </c>
       <c r="N27" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>6.370323552522134</v>
       </c>
       <c r="K30" t="n">
-        <v>138.7877391315785</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>218.4765776707143</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>276.1565137023554</v>
+        <v>222.3381790499068</v>
       </c>
       <c r="O30" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>35.28159246565053</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>276.1565137023555</v>
+        <v>228.7085026024289</v>
       </c>
       <c r="O33" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.71116244199196</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L36" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>276.1565137023555</v>
+        <v>272.2555879023948</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>190.7799438519202</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7877391315785</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>165.6825539232476</v>
+        <v>214.3240153459262</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.71116244199196</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>121.9644487350303</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L41" t="n">
         <v>204.1123577751702</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K42" t="n">
-        <v>23.3246024308938</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N42" t="n">
-        <v>276.1565137023555</v>
+        <v>72.80546338577096</v>
       </c>
       <c r="O42" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424865</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>201.870974228239</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>276.1565137023555</v>
+        <v>266.4969032388632</v>
       </c>
       <c r="N45" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757146.5514982927</v>
+        <v>817982.0264099929</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204405.4581289302</v>
+        <v>214006.8534502044</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8069060.157833983</v>
+        <v>8069060.157833982</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>98.22847700514936</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.014288877659</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>234.2889057203109</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>184.9634316650819</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>214.0658712864108</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.92041677519567</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>136.447863145762</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>267.2323487638325</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13478216561055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>194.7127856872527</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>314.4361628186928</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="E19" t="n">
-        <v>86.88462298447445</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>301.9984027317524</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>323.1973192220556</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>100.5344742103485</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>139.916483097261</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>126.9754573707988</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>189.0559928569234</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>148.2222349751194</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>176.5365836185382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>18.28928943979423</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>318.7696411281794</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>219.8106514483119</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>176.2110969530166</v>
       </c>
       <c r="E32" t="n">
-        <v>321.4642257063115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="V34" t="n">
-        <v>235.5000960026868</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>339.0399185806811</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>271.840101744014</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>33.77936158463006</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>197.23669384344</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>22.82098103446911</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>146.6850513083905</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>189.1305067218146</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3957,7 +3957,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>94.63926978364034</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>13.47206039374414</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.4909289099632224</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
         <v>725.4530095217538</v>
@@ -4549,13 +4549,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4594,22 +4594,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
         <v>506.1786963984129</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4658,7 +4658,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>864.836471667051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>636.61285340344</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>401.4607451716973</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>158.0119685275972</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.936603433759</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>255.936603433759</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>255.936603433759</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>255.936603433759</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219591</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219591</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219591</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219591</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219591</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219591</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>499.3853800778591</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252816</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217535</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>913.4938269565421</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565421</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247994</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2307.009759042411</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C11" t="n">
-        <v>1938.047242101999</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.781543495249</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224079</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018223</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5117,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5135,13 +5135,13 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D13" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>75.07471593672372</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1177.911859172214</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.911859172214</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.911859172214</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1236065739693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,10 +5278,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224075</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2328.116789473227</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>2328.116789473227</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X14" t="n">
-        <v>1954.651031212147</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="Y14" t="n">
-        <v>1564.511699236335</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5375,25 +5375,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.7118141694736</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C16" t="n">
-        <v>438.7118141694736</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D16" t="n">
-        <v>288.5951747571379</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E16" t="n">
-        <v>288.5951747571379</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F16" t="n">
-        <v>288.5951747571379</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G16" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>130.846802189668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5472,16 +5472,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694736</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694736</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694736</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1331.377835177124</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C17" t="n">
-        <v>1331.377835177124</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D17" t="n">
-        <v>1331.377835177124</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="E17" t="n">
-        <v>945.5895825788796</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="F17" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V17" t="n">
-        <v>2388.358616186807</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W17" t="n">
-        <v>2035.589960916693</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X17" t="n">
-        <v>1717.977675241246</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y17" t="n">
-        <v>1717.977675241246</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5624,13 +5624,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5652,10 +5652,10 @@
         <v>438.7118141694736</v>
       </c>
       <c r="C19" t="n">
-        <v>438.7118141694736</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D19" t="n">
-        <v>288.5951747571379</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
         <v>200.8329293182748</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>945.5895825788796</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C20" t="n">
-        <v>945.5895825788796</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="D20" t="n">
-        <v>945.5895825788796</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>945.5895825788796</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
         <v>534.603677789272</v>
@@ -5755,16 +5755,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5782,22 +5782,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W20" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X20" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y20" t="n">
-        <v>1250.638474227114</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="21">
@@ -5813,10 +5813,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961342</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D22" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E22" t="n">
-        <v>337.1618402196266</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F22" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G22" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1241.158393318536</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C23" t="n">
-        <v>1241.158393318536</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,49 +5992,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W23" t="n">
-        <v>1759.555763042629</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X23" t="n">
-        <v>1631.297725294347</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y23" t="n">
-        <v>1241.158393318536</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T25" t="n">
-        <v>286.5323736931987</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U25" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.68094731003</v>
+        <v>1365.68017039497</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1365.68017039497</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1007.414471788219</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>621.626219189975</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>621.626219189975</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>203.6624110881619</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6226,10 +6226,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224079</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V26" t="n">
-        <v>2189.908715988822</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W26" t="n">
-        <v>1837.140060718708</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X26" t="n">
-        <v>1658.820279285841</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y26" t="n">
-        <v>1268.68094731003</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036446</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1108.365917331524</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C29" t="n">
-        <v>739.4034003911122</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6481,10 +6481,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W29" t="n">
-        <v>1816.955293888756</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X29" t="n">
-        <v>1816.955293888756</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y29" t="n">
-        <v>1494.965757395646</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6560,25 +6560,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>343.3601518573251</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>506.0980231475335</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1154.883827626212</v>
+        <v>1313.879478346267</v>
       </c>
       <c r="C32" t="n">
-        <v>1154.883827626212</v>
+        <v>944.9169614058549</v>
       </c>
       <c r="D32" t="n">
-        <v>796.618129019462</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>1881.118241157406</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W32" t="n">
-        <v>1528.349585887292</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X32" t="n">
-        <v>1154.883827626212</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1154.883827626212</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
@@ -6797,7 +6797,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C34" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D34" t="n">
-        <v>200.8329293182748</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V34" t="n">
-        <v>490.2500993552354</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W34" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X34" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.945354755378</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>2354.684526795312</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1964.5451948195</v>
+        <v>892.8693763960225</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7031,34 +7031,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>694.0084169492324</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>694.0084169492324</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X37" t="n">
-        <v>348.7460229006679</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y37" t="n">
-        <v>348.7460229006679</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D38" t="n">
         <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.256750840535</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.193863496965</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W38" t="n">
-        <v>1540.425208226851</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X38" t="n">
-        <v>1166.959449965771</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y38" t="n">
         <v>1166.959449965771</v>
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7268,10 +7268,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1647.620145934678</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7511,22 +7511,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7575,34 +7575,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
         <v>343.360151857325</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>997.2466063457011</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>997.2466063457011</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D44" t="n">
-        <v>638.9809077389507</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>638.9809077389507</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
         <v>881.2824271224076</v>
@@ -7660,40 +7660,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2696.653203230381</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2696.653203230381</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V44" t="n">
-        <v>2147.451536646714</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W44" t="n">
-        <v>2147.451536646714</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X44" t="n">
-        <v>1773.985778385635</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y44" t="n">
-        <v>1383.846446409823</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N3" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8306,10 +8306,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996773</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,7 +22798,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22834,7 +22834,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>101.9362516896722</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="7">
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858216</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>172.5871400214006</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23071,7 +23071,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783946</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>150.1070334262686</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>180.3094601059257</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>167.864498785851</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457204</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>24.27954241334133</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>191.3043953243729</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>102.4987519146365</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726084</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>58.83083962672768</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>45.199959188537</v>
@@ -23712,7 +23712,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>212.1632600544587</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>55.29493785977621</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80.36219811415343</v>
       </c>
       <c r="E19" t="n">
-        <v>59.54933966209472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.7354389317282</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>31.48572239862739</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>45.89948843622064</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>61.5316190581546</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,7 +24183,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>225.3564086737466</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>242.7556433076703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>63.08165046690456</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>175.7005377892377</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>193.1945170599308</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>75.30176537689273</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>336.3937521808887</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24733,7 +24733,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>67.46829752787414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>32.32699187551606</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>178.4719446676664</v>
       </c>
       <c r="E32" t="n">
-        <v>60.46614436595024</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>194.2738373598195</v>
       </c>
       <c r="V34" t="n">
-        <v>16.63754732114123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>30.69118209778793</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>114.3978369120396</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>252.5025126573477</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>136.6435220329195</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>53.98747366484929</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>363.4169576215845</v>
       </c>
     </row>
     <row r="39">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>71.89960204370425</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>160.1104619955985</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>157.4983735401877</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>393.4039853479673</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>53.98747366484847</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>135.9689721019664</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448633.8158345976</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.047042546</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="16">
@@ -26331,7 +26331,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26343,19 +26343,19 @@
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597035</v>
@@ -26450,7 +26450,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26475,10 +26475,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26496,22 +26496,22 @@
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8519.705387987889</v>
+        <v>2476.504170048529</v>
       </c>
       <c r="C6" t="n">
-        <v>72249.72614355982</v>
+        <v>83245.93570159625</v>
       </c>
       <c r="D6" t="n">
-        <v>72249.72614355983</v>
+        <v>83245.93570159619</v>
       </c>
       <c r="E6" t="n">
-        <v>-257337.0863386784</v>
+        <v>-251875.5139674411</v>
       </c>
       <c r="F6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="G6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="H6" t="n">
-        <v>175509.0877043176</v>
+        <v>180970.660075555</v>
       </c>
       <c r="I6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="J6" t="n">
-        <v>112449.1451052115</v>
+        <v>117910.7174764488</v>
       </c>
       <c r="K6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="L6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.6600755551</v>
       </c>
       <c r="M6" t="n">
-        <v>67535.7270302596</v>
+        <v>72997.29940149681</v>
       </c>
       <c r="N6" t="n">
-        <v>175509.0877043176</v>
+        <v>180970.660075555</v>
       </c>
       <c r="O6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="P6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.6600755551</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31855,13 +31855,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -32095,7 +32095,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32493,16 +32493,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32797,7 +32797,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630663</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33751,25 +33751,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>73.8798454939265</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33988,25 +33988,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35026,10 +35026,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.014288877659</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36445,19 +36445,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435295</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
